--- a/dataset/location_coordinate.xlsx
+++ b/dataset/location_coordinate.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ueharahideyuki/Google Drive K/講義/icsR7/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bede0a8824f31502/ドキュメント/技科大/M1前期/情報通信システム論/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B944B4-74B7-974C-9FB3-D6B593D6C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{21B944B4-74B7-974C-9FB3-D6B593D6C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5521C91E-4D21-4333-85EA-F09E996D172E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24340" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="2880" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="point_coordinate_data_3F" sheetId="1" r:id="rId1"/>
-    <sheet name="point_coordinate_data_4F" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="1" r:id="rId1"/>
+    <sheet name="4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1019,13 +1019,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="42">
+    <row r="1" spans="1:7" ht="40" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2415,13 +2415,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0050B83A-C4AD-CF45-A4B4-D2D1EAC848CF}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="42">
+    <row r="1" spans="1:7" ht="40" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>4</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A47">
         <v>4</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A48">
         <v>4</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A50">
         <v>4</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A51">
         <v>4</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A52">
         <v>4</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A54">
         <v>4</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A55">
         <v>4</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A56">
         <v>4</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A57">
         <v>4</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A58">
         <v>4</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A59">
         <v>4</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A60">
         <v>4</v>
       </c>
